--- a/Symphony/2021/June/All Details/07.06.2021/MC Bank Statement June-2021.xlsx
+++ b/Symphony/2021/June/All Details/07.06.2021/MC Bank Statement June-2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="254">
   <si>
     <t>Date</t>
   </si>
@@ -698,9 +698,6 @@
     <t>Retail Name</t>
   </si>
   <si>
-    <t>Remarks</t>
-  </si>
-  <si>
     <t>30.05.2021</t>
   </si>
   <si>
@@ -779,9 +776,6 @@
     <t>Jafor</t>
   </si>
   <si>
-    <t>Rose Mobile</t>
-  </si>
-  <si>
     <t>1722383337  </t>
   </si>
   <si>
@@ -831,6 +825,12 @@
   </si>
   <si>
     <t>Naj=Cd Sound</t>
+  </si>
+  <si>
+    <t>Now Due</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -2116,7 +2116,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="385">
+  <cellXfs count="397">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3043,28 +3043,13 @@
     <xf numFmtId="1" fontId="40" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="39" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="15" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3072,9 +3057,6 @@
     </xf>
     <xf numFmtId="2" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3096,6 +3078,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3128,12 +3116,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="39" fillId="35" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3218,6 +3200,58 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="42" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3886,33 +3920,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="342"/>
-      <c r="B1" s="342"/>
-      <c r="C1" s="342"/>
-      <c r="D1" s="342"/>
-      <c r="E1" s="342"/>
-      <c r="F1" s="342"/>
+      <c r="A1" s="336"/>
+      <c r="B1" s="336"/>
+      <c r="C1" s="336"/>
+      <c r="D1" s="336"/>
+      <c r="E1" s="336"/>
+      <c r="F1" s="336"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="343"/>
-      <c r="B2" s="340" t="s">
+      <c r="A2" s="337"/>
+      <c r="B2" s="334" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="340"/>
-      <c r="D2" s="340"/>
-      <c r="E2" s="340"/>
+      <c r="C2" s="334"/>
+      <c r="D2" s="334"/>
+      <c r="E2" s="334"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="343"/>
-      <c r="B3" s="341" t="s">
+      <c r="A3" s="337"/>
+      <c r="B3" s="335" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="341"/>
-      <c r="D3" s="341"/>
-      <c r="E3" s="341"/>
+      <c r="C3" s="335"/>
+      <c r="D3" s="335"/>
+      <c r="E3" s="335"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="343"/>
+      <c r="A4" s="337"/>
       <c r="B4" s="34" t="s">
         <v>0</v>
       </c>
@@ -3930,7 +3964,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="343"/>
+      <c r="A5" s="337"/>
       <c r="B5" s="36" t="s">
         <v>3</v>
       </c>
@@ -3948,7 +3982,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="343"/>
+      <c r="A6" s="337"/>
       <c r="B6" s="38"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
@@ -3960,7 +3994,7 @@
       <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="343"/>
+      <c r="A7" s="337"/>
       <c r="B7" s="38" t="s">
         <v>85</v>
       </c>
@@ -3979,7 +4013,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="343"/>
+      <c r="A8" s="337"/>
       <c r="B8" s="38" t="s">
         <v>86</v>
       </c>
@@ -3998,7 +4032,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="343"/>
+      <c r="A9" s="337"/>
       <c r="B9" s="38" t="s">
         <v>89</v>
       </c>
@@ -4017,7 +4051,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="343"/>
+      <c r="A10" s="337"/>
       <c r="B10" s="38" t="s">
         <v>90</v>
       </c>
@@ -4036,7 +4070,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="343"/>
+      <c r="A11" s="337"/>
       <c r="B11" s="38" t="s">
         <v>91</v>
       </c>
@@ -4055,7 +4089,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="343"/>
+      <c r="A12" s="337"/>
       <c r="B12" s="38" t="s">
         <v>92</v>
       </c>
@@ -4074,7 +4108,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="343"/>
+      <c r="A13" s="337"/>
       <c r="B13" s="38" t="s">
         <v>93</v>
       </c>
@@ -4093,7 +4127,7 @@
       <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="343"/>
+      <c r="A14" s="337"/>
       <c r="B14" s="38" t="s">
         <v>94</v>
       </c>
@@ -4112,7 +4146,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="343"/>
+      <c r="A15" s="337"/>
       <c r="B15" s="38" t="s">
         <v>95</v>
       </c>
@@ -4131,7 +4165,7 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="343"/>
+      <c r="A16" s="337"/>
       <c r="B16" s="38"/>
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
@@ -4144,7 +4178,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="343"/>
+      <c r="A17" s="337"/>
       <c r="B17" s="38"/>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
@@ -4157,7 +4191,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="343"/>
+      <c r="A18" s="337"/>
       <c r="B18" s="38"/>
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
@@ -4170,7 +4204,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="343"/>
+      <c r="A19" s="337"/>
       <c r="B19" s="38"/>
       <c r="C19" s="37"/>
       <c r="D19" s="37"/>
@@ -4183,7 +4217,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="343"/>
+      <c r="A20" s="337"/>
       <c r="B20" s="38"/>
       <c r="C20" s="37"/>
       <c r="D20" s="37"/>
@@ -4196,7 +4230,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="343"/>
+      <c r="A21" s="337"/>
       <c r="B21" s="38"/>
       <c r="C21" s="37"/>
       <c r="D21" s="37"/>
@@ -4209,7 +4243,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="343"/>
+      <c r="A22" s="337"/>
       <c r="B22" s="38"/>
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
@@ -4222,7 +4256,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="343"/>
+      <c r="A23" s="337"/>
       <c r="B23" s="38"/>
       <c r="C23" s="37"/>
       <c r="D23" s="37"/>
@@ -4235,7 +4269,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="343"/>
+      <c r="A24" s="337"/>
       <c r="B24" s="38"/>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
@@ -4248,7 +4282,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="343"/>
+      <c r="A25" s="337"/>
       <c r="B25" s="38"/>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
@@ -4261,7 +4295,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="343"/>
+      <c r="A26" s="337"/>
       <c r="B26" s="38"/>
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
@@ -4274,7 +4308,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="343"/>
+      <c r="A27" s="337"/>
       <c r="B27" s="38"/>
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
@@ -4287,7 +4321,7 @@
       <c r="H27" s="33"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="343"/>
+      <c r="A28" s="337"/>
       <c r="B28" s="38"/>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
@@ -4300,7 +4334,7 @@
       <c r="H28" s="33"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="343"/>
+      <c r="A29" s="337"/>
       <c r="B29" s="38"/>
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
@@ -4313,7 +4347,7 @@
       <c r="H29" s="33"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="343"/>
+      <c r="A30" s="337"/>
       <c r="B30" s="38"/>
       <c r="C30" s="37"/>
       <c r="D30" s="37"/>
@@ -4326,7 +4360,7 @@
       <c r="H30" s="33"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="343"/>
+      <c r="A31" s="337"/>
       <c r="B31" s="38"/>
       <c r="C31" s="37"/>
       <c r="D31" s="37"/>
@@ -4339,7 +4373,7 @@
       <c r="H31" s="33"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="343"/>
+      <c r="A32" s="337"/>
       <c r="B32" s="38"/>
       <c r="C32" s="37"/>
       <c r="D32" s="37"/>
@@ -4352,7 +4386,7 @@
       <c r="H32" s="33"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="343"/>
+      <c r="A33" s="337"/>
       <c r="B33" s="38"/>
       <c r="C33" s="37"/>
       <c r="D33" s="40"/>
@@ -4365,7 +4399,7 @@
       <c r="H33" s="33"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="343"/>
+      <c r="A34" s="337"/>
       <c r="B34" s="38"/>
       <c r="C34" s="37"/>
       <c r="D34" s="37"/>
@@ -4378,7 +4412,7 @@
       <c r="H34" s="33"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="343"/>
+      <c r="A35" s="337"/>
       <c r="B35" s="38"/>
       <c r="C35" s="37"/>
       <c r="D35" s="37"/>
@@ -4391,7 +4425,7 @@
       <c r="H35" s="33"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="343"/>
+      <c r="A36" s="337"/>
       <c r="B36" s="38"/>
       <c r="C36" s="37"/>
       <c r="D36" s="37"/>
@@ -4404,7 +4438,7 @@
       <c r="H36" s="33"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="343"/>
+      <c r="A37" s="337"/>
       <c r="B37" s="38"/>
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
@@ -4417,7 +4451,7 @@
       <c r="H37" s="33"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="343"/>
+      <c r="A38" s="337"/>
       <c r="B38" s="38"/>
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
@@ -4430,7 +4464,7 @@
       <c r="H38" s="33"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="343"/>
+      <c r="A39" s="337"/>
       <c r="B39" s="38"/>
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
@@ -4443,7 +4477,7 @@
       <c r="H39" s="33"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="343"/>
+      <c r="A40" s="337"/>
       <c r="B40" s="38"/>
       <c r="C40" s="37"/>
       <c r="D40" s="37"/>
@@ -4456,7 +4490,7 @@
       <c r="H40" s="33"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="343"/>
+      <c r="A41" s="337"/>
       <c r="B41" s="38"/>
       <c r="C41" s="37"/>
       <c r="D41" s="37"/>
@@ -4469,7 +4503,7 @@
       <c r="H41" s="33"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="343"/>
+      <c r="A42" s="337"/>
       <c r="B42" s="38"/>
       <c r="C42" s="37"/>
       <c r="D42" s="37"/>
@@ -4482,7 +4516,7 @@
       <c r="H42" s="33"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="343"/>
+      <c r="A43" s="337"/>
       <c r="B43" s="38"/>
       <c r="C43" s="37"/>
       <c r="D43" s="37"/>
@@ -4495,7 +4529,7 @@
       <c r="H43" s="33"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="343"/>
+      <c r="A44" s="337"/>
       <c r="B44" s="38"/>
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
@@ -4508,7 +4542,7 @@
       <c r="H44" s="33"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="343"/>
+      <c r="A45" s="337"/>
       <c r="B45" s="38"/>
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
@@ -4521,7 +4555,7 @@
       <c r="H45" s="33"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="343"/>
+      <c r="A46" s="337"/>
       <c r="B46" s="38"/>
       <c r="C46" s="37"/>
       <c r="D46" s="37"/>
@@ -4534,7 +4568,7 @@
       <c r="H46" s="33"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="343"/>
+      <c r="A47" s="337"/>
       <c r="B47" s="38"/>
       <c r="C47" s="37"/>
       <c r="D47" s="37"/>
@@ -4547,7 +4581,7 @@
       <c r="H47" s="33"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="343"/>
+      <c r="A48" s="337"/>
       <c r="B48" s="38"/>
       <c r="C48" s="37"/>
       <c r="D48" s="37"/>
@@ -4560,7 +4594,7 @@
       <c r="H48" s="33"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="343"/>
+      <c r="A49" s="337"/>
       <c r="B49" s="38"/>
       <c r="C49" s="37"/>
       <c r="D49" s="37"/>
@@ -4573,7 +4607,7 @@
       <c r="H49" s="33"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="343"/>
+      <c r="A50" s="337"/>
       <c r="B50" s="38"/>
       <c r="C50" s="37"/>
       <c r="D50" s="37"/>
@@ -4586,7 +4620,7 @@
       <c r="H50" s="33"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="343"/>
+      <c r="A51" s="337"/>
       <c r="B51" s="38"/>
       <c r="C51" s="37"/>
       <c r="D51" s="37"/>
@@ -4599,7 +4633,7 @@
       <c r="H51" s="33"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="343"/>
+      <c r="A52" s="337"/>
       <c r="B52" s="38"/>
       <c r="C52" s="37"/>
       <c r="D52" s="37"/>
@@ -4612,7 +4646,7 @@
       <c r="H52" s="33"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="343"/>
+      <c r="A53" s="337"/>
       <c r="B53" s="38"/>
       <c r="C53" s="37"/>
       <c r="D53" s="37"/>
@@ -4625,7 +4659,7 @@
       <c r="H53" s="33"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="343"/>
+      <c r="A54" s="337"/>
       <c r="B54" s="38"/>
       <c r="C54" s="37"/>
       <c r="D54" s="37"/>
@@ -4638,7 +4672,7 @@
       <c r="H54" s="33"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="343"/>
+      <c r="A55" s="337"/>
       <c r="B55" s="38"/>
       <c r="C55" s="37"/>
       <c r="D55" s="37"/>
@@ -4650,7 +4684,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="343"/>
+      <c r="A56" s="337"/>
       <c r="B56" s="38"/>
       <c r="C56" s="37"/>
       <c r="D56" s="37"/>
@@ -4662,7 +4696,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="343"/>
+      <c r="A57" s="337"/>
       <c r="B57" s="38"/>
       <c r="C57" s="37"/>
       <c r="D57" s="37"/>
@@ -4674,7 +4708,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="343"/>
+      <c r="A58" s="337"/>
       <c r="B58" s="38"/>
       <c r="C58" s="37"/>
       <c r="D58" s="37"/>
@@ -4686,7 +4720,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="343"/>
+      <c r="A59" s="337"/>
       <c r="B59" s="38"/>
       <c r="C59" s="37"/>
       <c r="D59" s="37"/>
@@ -4698,7 +4732,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="343"/>
+      <c r="A60" s="337"/>
       <c r="B60" s="38"/>
       <c r="C60" s="37"/>
       <c r="D60" s="37"/>
@@ -4710,7 +4744,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="343"/>
+      <c r="A61" s="337"/>
       <c r="B61" s="38"/>
       <c r="C61" s="37"/>
       <c r="D61" s="37"/>
@@ -4722,7 +4756,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="343"/>
+      <c r="A62" s="337"/>
       <c r="B62" s="38"/>
       <c r="C62" s="37"/>
       <c r="D62" s="37"/>
@@ -4734,7 +4768,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="343"/>
+      <c r="A63" s="337"/>
       <c r="B63" s="38"/>
       <c r="C63" s="37"/>
       <c r="D63" s="37"/>
@@ -4746,7 +4780,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="343"/>
+      <c r="A64" s="337"/>
       <c r="B64" s="38"/>
       <c r="C64" s="37"/>
       <c r="D64" s="37"/>
@@ -4758,7 +4792,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="343"/>
+      <c r="A65" s="337"/>
       <c r="B65" s="38"/>
       <c r="C65" s="37"/>
       <c r="D65" s="37"/>
@@ -4770,7 +4804,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="343"/>
+      <c r="A66" s="337"/>
       <c r="B66" s="38"/>
       <c r="C66" s="37"/>
       <c r="D66" s="37"/>
@@ -4782,7 +4816,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="343"/>
+      <c r="A67" s="337"/>
       <c r="B67" s="38"/>
       <c r="C67" s="37"/>
       <c r="D67" s="37"/>
@@ -4794,7 +4828,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="343"/>
+      <c r="A68" s="337"/>
       <c r="B68" s="38"/>
       <c r="C68" s="37"/>
       <c r="D68" s="37"/>
@@ -4806,7 +4840,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="343"/>
+      <c r="A69" s="337"/>
       <c r="B69" s="38"/>
       <c r="C69" s="37"/>
       <c r="D69" s="37"/>
@@ -4818,7 +4852,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="343"/>
+      <c r="A70" s="337"/>
       <c r="B70" s="38"/>
       <c r="C70" s="37"/>
       <c r="D70" s="37"/>
@@ -4830,7 +4864,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="343"/>
+      <c r="A71" s="337"/>
       <c r="B71" s="38"/>
       <c r="C71" s="37"/>
       <c r="D71" s="37"/>
@@ -4842,7 +4876,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="343"/>
+      <c r="A72" s="337"/>
       <c r="B72" s="38"/>
       <c r="C72" s="37"/>
       <c r="D72" s="37"/>
@@ -4854,7 +4888,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="343"/>
+      <c r="A73" s="337"/>
       <c r="B73" s="38"/>
       <c r="C73" s="37"/>
       <c r="D73" s="37"/>
@@ -4866,7 +4900,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="343"/>
+      <c r="A74" s="337"/>
       <c r="B74" s="38"/>
       <c r="C74" s="37"/>
       <c r="D74" s="37"/>
@@ -4878,7 +4912,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="343"/>
+      <c r="A75" s="337"/>
       <c r="B75" s="38"/>
       <c r="C75" s="37"/>
       <c r="D75" s="37"/>
@@ -4890,7 +4924,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="343"/>
+      <c r="A76" s="337"/>
       <c r="B76" s="38"/>
       <c r="C76" s="37"/>
       <c r="D76" s="37"/>
@@ -4902,7 +4936,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="343"/>
+      <c r="A77" s="337"/>
       <c r="B77" s="38"/>
       <c r="C77" s="37"/>
       <c r="D77" s="37"/>
@@ -4914,7 +4948,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="343"/>
+      <c r="A78" s="337"/>
       <c r="B78" s="38"/>
       <c r="C78" s="37"/>
       <c r="D78" s="37"/>
@@ -4926,7 +4960,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="343"/>
+      <c r="A79" s="337"/>
       <c r="B79" s="38"/>
       <c r="C79" s="37"/>
       <c r="D79" s="37"/>
@@ -4938,7 +4972,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="343"/>
+      <c r="A80" s="337"/>
       <c r="B80" s="38"/>
       <c r="C80" s="37"/>
       <c r="D80" s="37"/>
@@ -4950,7 +4984,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="343"/>
+      <c r="A81" s="337"/>
       <c r="B81" s="38"/>
       <c r="C81" s="37"/>
       <c r="D81" s="37"/>
@@ -4962,7 +4996,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="343"/>
+      <c r="A82" s="337"/>
       <c r="B82" s="38"/>
       <c r="C82" s="37"/>
       <c r="D82" s="37"/>
@@ -4974,7 +5008,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="343"/>
+      <c r="A83" s="337"/>
       <c r="B83" s="43"/>
       <c r="C83" s="39">
         <f>SUM(C5:C72)</f>
@@ -5031,33 +5065,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="342"/>
-      <c r="B1" s="342"/>
-      <c r="C1" s="342"/>
-      <c r="D1" s="342"/>
-      <c r="E1" s="342"/>
-      <c r="F1" s="342"/>
+      <c r="A1" s="336"/>
+      <c r="B1" s="336"/>
+      <c r="C1" s="336"/>
+      <c r="D1" s="336"/>
+      <c r="E1" s="336"/>
+      <c r="F1" s="336"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="343"/>
-      <c r="B2" s="340" t="s">
+      <c r="A2" s="337"/>
+      <c r="B2" s="334" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="340"/>
-      <c r="D2" s="340"/>
-      <c r="E2" s="340"/>
+      <c r="C2" s="334"/>
+      <c r="D2" s="334"/>
+      <c r="E2" s="334"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="343"/>
-      <c r="B3" s="341" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" s="341"/>
-      <c r="D3" s="341"/>
-      <c r="E3" s="341"/>
+      <c r="A3" s="337"/>
+      <c r="B3" s="335" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="335"/>
+      <c r="D3" s="335"/>
+      <c r="E3" s="335"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="343"/>
+      <c r="A4" s="337"/>
       <c r="B4" s="34" t="s">
         <v>0</v>
       </c>
@@ -5075,7 +5109,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="343"/>
+      <c r="A5" s="337"/>
       <c r="B5" s="36" t="s">
         <v>3</v>
       </c>
@@ -5093,7 +5127,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="343"/>
+      <c r="A6" s="337"/>
       <c r="B6" s="38"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
@@ -5105,9 +5139,9 @@
       <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="343"/>
+      <c r="A7" s="337"/>
       <c r="B7" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C7" s="37">
         <v>0</v>
@@ -5124,9 +5158,9 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="343"/>
+      <c r="A8" s="337"/>
       <c r="B8" s="38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C8" s="37">
         <v>145000</v>
@@ -5143,9 +5177,9 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="343"/>
+      <c r="A9" s="337"/>
       <c r="B9" s="38" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C9" s="37">
         <v>400000</v>
@@ -5162,9 +5196,9 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="343"/>
+      <c r="A10" s="337"/>
       <c r="B10" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C10" s="40">
         <v>0</v>
@@ -5181,9 +5215,9 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="343"/>
+      <c r="A11" s="337"/>
       <c r="B11" s="38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C11" s="37">
         <v>950000</v>
@@ -5200,9 +5234,9 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="343"/>
+      <c r="A12" s="337"/>
       <c r="B12" s="38" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C12" s="37">
         <v>420000</v>
@@ -5219,7 +5253,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="343"/>
+      <c r="A13" s="337"/>
       <c r="B13" s="38"/>
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
@@ -5232,7 +5266,7 @@
       <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="343"/>
+      <c r="A14" s="337"/>
       <c r="B14" s="38"/>
       <c r="C14" s="37"/>
       <c r="D14" s="37"/>
@@ -5245,7 +5279,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="343"/>
+      <c r="A15" s="337"/>
       <c r="B15" s="38"/>
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
@@ -5258,7 +5292,7 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="343"/>
+      <c r="A16" s="337"/>
       <c r="B16" s="38"/>
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
@@ -5271,7 +5305,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="343"/>
+      <c r="A17" s="337"/>
       <c r="B17" s="38"/>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
@@ -5284,7 +5318,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="343"/>
+      <c r="A18" s="337"/>
       <c r="B18" s="38"/>
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
@@ -5297,7 +5331,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="343"/>
+      <c r="A19" s="337"/>
       <c r="B19" s="38"/>
       <c r="C19" s="37"/>
       <c r="D19" s="37"/>
@@ -5310,7 +5344,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="343"/>
+      <c r="A20" s="337"/>
       <c r="B20" s="38"/>
       <c r="C20" s="37"/>
       <c r="D20" s="37"/>
@@ -5323,7 +5357,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="343"/>
+      <c r="A21" s="337"/>
       <c r="B21" s="38"/>
       <c r="C21" s="37"/>
       <c r="D21" s="37"/>
@@ -5336,7 +5370,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="343"/>
+      <c r="A22" s="337"/>
       <c r="B22" s="38"/>
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
@@ -5349,7 +5383,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="343"/>
+      <c r="A23" s="337"/>
       <c r="B23" s="38"/>
       <c r="C23" s="37"/>
       <c r="D23" s="37"/>
@@ -5362,7 +5396,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="343"/>
+      <c r="A24" s="337"/>
       <c r="B24" s="38"/>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
@@ -5375,7 +5409,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="343"/>
+      <c r="A25" s="337"/>
       <c r="B25" s="38"/>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
@@ -5388,7 +5422,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="343"/>
+      <c r="A26" s="337"/>
       <c r="B26" s="38"/>
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
@@ -5401,7 +5435,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="343"/>
+      <c r="A27" s="337"/>
       <c r="B27" s="38"/>
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
@@ -5414,7 +5448,7 @@
       <c r="H27" s="33"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="343"/>
+      <c r="A28" s="337"/>
       <c r="B28" s="38"/>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
@@ -5427,7 +5461,7 @@
       <c r="H28" s="33"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="343"/>
+      <c r="A29" s="337"/>
       <c r="B29" s="38"/>
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
@@ -5440,7 +5474,7 @@
       <c r="H29" s="33"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="343"/>
+      <c r="A30" s="337"/>
       <c r="B30" s="38"/>
       <c r="C30" s="37"/>
       <c r="D30" s="37"/>
@@ -5453,7 +5487,7 @@
       <c r="H30" s="33"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="343"/>
+      <c r="A31" s="337"/>
       <c r="B31" s="38"/>
       <c r="C31" s="37"/>
       <c r="D31" s="37"/>
@@ -5466,7 +5500,7 @@
       <c r="H31" s="33"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="343"/>
+      <c r="A32" s="337"/>
       <c r="B32" s="38"/>
       <c r="C32" s="37"/>
       <c r="D32" s="37"/>
@@ -5479,7 +5513,7 @@
       <c r="H32" s="33"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="343"/>
+      <c r="A33" s="337"/>
       <c r="B33" s="38"/>
       <c r="C33" s="37"/>
       <c r="D33" s="40"/>
@@ -5492,7 +5526,7 @@
       <c r="H33" s="33"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="343"/>
+      <c r="A34" s="337"/>
       <c r="B34" s="38"/>
       <c r="C34" s="37"/>
       <c r="D34" s="37"/>
@@ -5505,7 +5539,7 @@
       <c r="H34" s="33"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="343"/>
+      <c r="A35" s="337"/>
       <c r="B35" s="38"/>
       <c r="C35" s="37"/>
       <c r="D35" s="37"/>
@@ -5518,7 +5552,7 @@
       <c r="H35" s="33"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="343"/>
+      <c r="A36" s="337"/>
       <c r="B36" s="38"/>
       <c r="C36" s="37"/>
       <c r="D36" s="37"/>
@@ -5531,7 +5565,7 @@
       <c r="H36" s="33"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="343"/>
+      <c r="A37" s="337"/>
       <c r="B37" s="38"/>
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
@@ -5544,7 +5578,7 @@
       <c r="H37" s="33"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="343"/>
+      <c r="A38" s="337"/>
       <c r="B38" s="38"/>
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
@@ -5557,7 +5591,7 @@
       <c r="H38" s="33"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="343"/>
+      <c r="A39" s="337"/>
       <c r="B39" s="38"/>
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
@@ -5570,7 +5604,7 @@
       <c r="H39" s="33"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="343"/>
+      <c r="A40" s="337"/>
       <c r="B40" s="38"/>
       <c r="C40" s="37"/>
       <c r="D40" s="37"/>
@@ -5583,7 +5617,7 @@
       <c r="H40" s="33"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="343"/>
+      <c r="A41" s="337"/>
       <c r="B41" s="38"/>
       <c r="C41" s="37"/>
       <c r="D41" s="37"/>
@@ -5596,7 +5630,7 @@
       <c r="H41" s="33"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="343"/>
+      <c r="A42" s="337"/>
       <c r="B42" s="38"/>
       <c r="C42" s="37"/>
       <c r="D42" s="37"/>
@@ -5609,7 +5643,7 @@
       <c r="H42" s="33"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="343"/>
+      <c r="A43" s="337"/>
       <c r="B43" s="38"/>
       <c r="C43" s="37"/>
       <c r="D43" s="37"/>
@@ -5622,7 +5656,7 @@
       <c r="H43" s="33"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="343"/>
+      <c r="A44" s="337"/>
       <c r="B44" s="38"/>
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
@@ -5635,7 +5669,7 @@
       <c r="H44" s="33"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="343"/>
+      <c r="A45" s="337"/>
       <c r="B45" s="38"/>
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
@@ -5648,7 +5682,7 @@
       <c r="H45" s="33"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="343"/>
+      <c r="A46" s="337"/>
       <c r="B46" s="38"/>
       <c r="C46" s="37"/>
       <c r="D46" s="37"/>
@@ -5661,7 +5695,7 @@
       <c r="H46" s="33"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="343"/>
+      <c r="A47" s="337"/>
       <c r="B47" s="38"/>
       <c r="C47" s="37"/>
       <c r="D47" s="37"/>
@@ -5674,7 +5708,7 @@
       <c r="H47" s="33"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="343"/>
+      <c r="A48" s="337"/>
       <c r="B48" s="38"/>
       <c r="C48" s="37"/>
       <c r="D48" s="37"/>
@@ -5687,7 +5721,7 @@
       <c r="H48" s="33"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="343"/>
+      <c r="A49" s="337"/>
       <c r="B49" s="38"/>
       <c r="C49" s="37"/>
       <c r="D49" s="37"/>
@@ -5700,7 +5734,7 @@
       <c r="H49" s="33"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="343"/>
+      <c r="A50" s="337"/>
       <c r="B50" s="38"/>
       <c r="C50" s="37"/>
       <c r="D50" s="37"/>
@@ -5713,7 +5747,7 @@
       <c r="H50" s="33"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="343"/>
+      <c r="A51" s="337"/>
       <c r="B51" s="38"/>
       <c r="C51" s="37"/>
       <c r="D51" s="37"/>
@@ -5726,7 +5760,7 @@
       <c r="H51" s="33"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="343"/>
+      <c r="A52" s="337"/>
       <c r="B52" s="38"/>
       <c r="C52" s="37"/>
       <c r="D52" s="37"/>
@@ -5739,7 +5773,7 @@
       <c r="H52" s="33"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="343"/>
+      <c r="A53" s="337"/>
       <c r="B53" s="38"/>
       <c r="C53" s="37"/>
       <c r="D53" s="37"/>
@@ -5752,7 +5786,7 @@
       <c r="H53" s="33"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="343"/>
+      <c r="A54" s="337"/>
       <c r="B54" s="38"/>
       <c r="C54" s="37"/>
       <c r="D54" s="37"/>
@@ -5765,7 +5799,7 @@
       <c r="H54" s="33"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="343"/>
+      <c r="A55" s="337"/>
       <c r="B55" s="38"/>
       <c r="C55" s="37"/>
       <c r="D55" s="37"/>
@@ -5777,7 +5811,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="343"/>
+      <c r="A56" s="337"/>
       <c r="B56" s="38"/>
       <c r="C56" s="37"/>
       <c r="D56" s="37"/>
@@ -5789,7 +5823,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="343"/>
+      <c r="A57" s="337"/>
       <c r="B57" s="38"/>
       <c r="C57" s="37"/>
       <c r="D57" s="37"/>
@@ -5801,7 +5835,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="343"/>
+      <c r="A58" s="337"/>
       <c r="B58" s="38"/>
       <c r="C58" s="37"/>
       <c r="D58" s="37"/>
@@ -5813,7 +5847,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="343"/>
+      <c r="A59" s="337"/>
       <c r="B59" s="38"/>
       <c r="C59" s="37"/>
       <c r="D59" s="37"/>
@@ -5825,7 +5859,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="343"/>
+      <c r="A60" s="337"/>
       <c r="B60" s="38"/>
       <c r="C60" s="37"/>
       <c r="D60" s="37"/>
@@ -5837,7 +5871,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="343"/>
+      <c r="A61" s="337"/>
       <c r="B61" s="38"/>
       <c r="C61" s="37"/>
       <c r="D61" s="37"/>
@@ -5849,7 +5883,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="343"/>
+      <c r="A62" s="337"/>
       <c r="B62" s="38"/>
       <c r="C62" s="37"/>
       <c r="D62" s="37"/>
@@ -5861,7 +5895,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="343"/>
+      <c r="A63" s="337"/>
       <c r="B63" s="38"/>
       <c r="C63" s="37"/>
       <c r="D63" s="37"/>
@@ -5873,7 +5907,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="343"/>
+      <c r="A64" s="337"/>
       <c r="B64" s="38"/>
       <c r="C64" s="37"/>
       <c r="D64" s="37"/>
@@ -5885,7 +5919,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="343"/>
+      <c r="A65" s="337"/>
       <c r="B65" s="38"/>
       <c r="C65" s="37"/>
       <c r="D65" s="37"/>
@@ -5897,7 +5931,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="343"/>
+      <c r="A66" s="337"/>
       <c r="B66" s="38"/>
       <c r="C66" s="37"/>
       <c r="D66" s="37"/>
@@ -5909,7 +5943,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="343"/>
+      <c r="A67" s="337"/>
       <c r="B67" s="38"/>
       <c r="C67" s="37"/>
       <c r="D67" s="37"/>
@@ -5921,7 +5955,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="343"/>
+      <c r="A68" s="337"/>
       <c r="B68" s="38"/>
       <c r="C68" s="37"/>
       <c r="D68" s="37"/>
@@ -5933,7 +5967,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="343"/>
+      <c r="A69" s="337"/>
       <c r="B69" s="38"/>
       <c r="C69" s="37"/>
       <c r="D69" s="37"/>
@@ -5945,7 +5979,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="343"/>
+      <c r="A70" s="337"/>
       <c r="B70" s="38"/>
       <c r="C70" s="37"/>
       <c r="D70" s="37"/>
@@ -5957,7 +5991,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="343"/>
+      <c r="A71" s="337"/>
       <c r="B71" s="38"/>
       <c r="C71" s="37"/>
       <c r="D71" s="37"/>
@@ -5969,7 +6003,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="343"/>
+      <c r="A72" s="337"/>
       <c r="B72" s="38"/>
       <c r="C72" s="37"/>
       <c r="D72" s="37"/>
@@ -5981,7 +6015,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="343"/>
+      <c r="A73" s="337"/>
       <c r="B73" s="38"/>
       <c r="C73" s="37"/>
       <c r="D73" s="37"/>
@@ -5993,7 +6027,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="343"/>
+      <c r="A74" s="337"/>
       <c r="B74" s="38"/>
       <c r="C74" s="37"/>
       <c r="D74" s="37"/>
@@ -6005,7 +6039,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="343"/>
+      <c r="A75" s="337"/>
       <c r="B75" s="38"/>
       <c r="C75" s="37"/>
       <c r="D75" s="37"/>
@@ -6017,7 +6051,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="343"/>
+      <c r="A76" s="337"/>
       <c r="B76" s="38"/>
       <c r="C76" s="37"/>
       <c r="D76" s="37"/>
@@ -6029,7 +6063,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="343"/>
+      <c r="A77" s="337"/>
       <c r="B77" s="38"/>
       <c r="C77" s="37"/>
       <c r="D77" s="37"/>
@@ -6041,7 +6075,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="343"/>
+      <c r="A78" s="337"/>
       <c r="B78" s="38"/>
       <c r="C78" s="37"/>
       <c r="D78" s="37"/>
@@ -6053,7 +6087,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="343"/>
+      <c r="A79" s="337"/>
       <c r="B79" s="38"/>
       <c r="C79" s="37"/>
       <c r="D79" s="37"/>
@@ -6065,7 +6099,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="343"/>
+      <c r="A80" s="337"/>
       <c r="B80" s="38"/>
       <c r="C80" s="37"/>
       <c r="D80" s="37"/>
@@ -6077,7 +6111,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="343"/>
+      <c r="A81" s="337"/>
       <c r="B81" s="38"/>
       <c r="C81" s="37"/>
       <c r="D81" s="37"/>
@@ -6089,7 +6123,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="343"/>
+      <c r="A82" s="337"/>
       <c r="B82" s="38"/>
       <c r="C82" s="37"/>
       <c r="D82" s="37"/>
@@ -6101,7 +6135,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="343"/>
+      <c r="A83" s="337"/>
       <c r="B83" s="43"/>
       <c r="C83" s="39">
         <f>SUM(C5:C72)</f>
@@ -6153,67 +6187,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="346" t="s">
+      <c r="A1" s="342" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="346"/>
-      <c r="C1" s="346"/>
-      <c r="D1" s="346"/>
-      <c r="E1" s="346"/>
-      <c r="F1" s="346"/>
-      <c r="G1" s="346"/>
-      <c r="H1" s="346"/>
-      <c r="I1" s="346"/>
-      <c r="J1" s="346"/>
-      <c r="K1" s="346"/>
-      <c r="L1" s="346"/>
-      <c r="M1" s="346"/>
-      <c r="N1" s="346"/>
-      <c r="O1" s="346"/>
-      <c r="P1" s="346"/>
-      <c r="Q1" s="346"/>
+      <c r="B1" s="342"/>
+      <c r="C1" s="342"/>
+      <c r="D1" s="342"/>
+      <c r="E1" s="342"/>
+      <c r="F1" s="342"/>
+      <c r="G1" s="342"/>
+      <c r="H1" s="342"/>
+      <c r="I1" s="342"/>
+      <c r="J1" s="342"/>
+      <c r="K1" s="342"/>
+      <c r="L1" s="342"/>
+      <c r="M1" s="342"/>
+      <c r="N1" s="342"/>
+      <c r="O1" s="342"/>
+      <c r="P1" s="342"/>
+      <c r="Q1" s="342"/>
     </row>
     <row r="2" spans="1:24" s="119" customFormat="1" ht="18">
-      <c r="A2" s="347" t="s">
+      <c r="A2" s="343" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="347"/>
-      <c r="C2" s="347"/>
-      <c r="D2" s="347"/>
-      <c r="E2" s="347"/>
-      <c r="F2" s="347"/>
-      <c r="G2" s="347"/>
-      <c r="H2" s="347"/>
-      <c r="I2" s="347"/>
-      <c r="J2" s="347"/>
-      <c r="K2" s="347"/>
-      <c r="L2" s="347"/>
-      <c r="M2" s="347"/>
-      <c r="N2" s="347"/>
-      <c r="O2" s="347"/>
-      <c r="P2" s="347"/>
-      <c r="Q2" s="347"/>
+      <c r="B2" s="343"/>
+      <c r="C2" s="343"/>
+      <c r="D2" s="343"/>
+      <c r="E2" s="343"/>
+      <c r="F2" s="343"/>
+      <c r="G2" s="343"/>
+      <c r="H2" s="343"/>
+      <c r="I2" s="343"/>
+      <c r="J2" s="343"/>
+      <c r="K2" s="343"/>
+      <c r="L2" s="343"/>
+      <c r="M2" s="343"/>
+      <c r="N2" s="343"/>
+      <c r="O2" s="343"/>
+      <c r="P2" s="343"/>
+      <c r="Q2" s="343"/>
     </row>
     <row r="3" spans="1:24" s="120" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="348" t="s">
-        <v>216</v>
-      </c>
-      <c r="B3" s="349"/>
-      <c r="C3" s="349"/>
-      <c r="D3" s="349"/>
-      <c r="E3" s="349"/>
-      <c r="F3" s="349"/>
-      <c r="G3" s="349"/>
-      <c r="H3" s="349"/>
-      <c r="I3" s="349"/>
-      <c r="J3" s="349"/>
-      <c r="K3" s="349"/>
-      <c r="L3" s="349"/>
-      <c r="M3" s="349"/>
-      <c r="N3" s="349"/>
-      <c r="O3" s="349"/>
-      <c r="P3" s="349"/>
-      <c r="Q3" s="350"/>
+      <c r="A3" s="344" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="345"/>
+      <c r="C3" s="345"/>
+      <c r="D3" s="345"/>
+      <c r="E3" s="345"/>
+      <c r="F3" s="345"/>
+      <c r="G3" s="345"/>
+      <c r="H3" s="345"/>
+      <c r="I3" s="345"/>
+      <c r="J3" s="345"/>
+      <c r="K3" s="345"/>
+      <c r="L3" s="345"/>
+      <c r="M3" s="345"/>
+      <c r="N3" s="345"/>
+      <c r="O3" s="345"/>
+      <c r="P3" s="345"/>
+      <c r="Q3" s="346"/>
       <c r="S3" s="96"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -6222,52 +6256,52 @@
       <c r="X3" s="28"/>
     </row>
     <row r="4" spans="1:24" s="121" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="351" t="s">
+      <c r="A4" s="347" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="353" t="s">
+      <c r="B4" s="349" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="355" t="s">
+      <c r="C4" s="338" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="355" t="s">
+      <c r="D4" s="338" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="355" t="s">
+      <c r="E4" s="338" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="355" t="s">
+      <c r="F4" s="338" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="355" t="s">
+      <c r="G4" s="338" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="355" t="s">
+      <c r="H4" s="338" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="355" t="s">
+      <c r="I4" s="338" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="355" t="s">
+      <c r="J4" s="338" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="355" t="s">
+      <c r="K4" s="338" t="s">
         <v>63</v>
       </c>
-      <c r="L4" s="355" t="s">
+      <c r="L4" s="338" t="s">
         <v>64</v>
       </c>
-      <c r="M4" s="355" t="s">
+      <c r="M4" s="338" t="s">
         <v>65</v>
       </c>
-      <c r="N4" s="355" t="s">
+      <c r="N4" s="338" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="344" t="s">
+      <c r="O4" s="340" t="s">
         <v>67</v>
       </c>
-      <c r="P4" s="357" t="s">
+      <c r="P4" s="351" t="s">
         <v>111</v>
       </c>
       <c r="Q4" s="193" t="s">
@@ -6280,22 +6314,22 @@
       <c r="W4" s="123"/>
     </row>
     <row r="5" spans="1:24" s="121" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="352"/>
-      <c r="B5" s="354"/>
-      <c r="C5" s="356"/>
-      <c r="D5" s="356"/>
-      <c r="E5" s="356"/>
-      <c r="F5" s="356"/>
-      <c r="G5" s="356"/>
-      <c r="H5" s="356"/>
-      <c r="I5" s="356"/>
-      <c r="J5" s="356"/>
-      <c r="K5" s="356"/>
-      <c r="L5" s="356"/>
-      <c r="M5" s="356"/>
-      <c r="N5" s="356"/>
-      <c r="O5" s="345"/>
-      <c r="P5" s="358"/>
+      <c r="A5" s="348"/>
+      <c r="B5" s="350"/>
+      <c r="C5" s="339"/>
+      <c r="D5" s="339"/>
+      <c r="E5" s="339"/>
+      <c r="F5" s="339"/>
+      <c r="G5" s="339"/>
+      <c r="H5" s="339"/>
+      <c r="I5" s="339"/>
+      <c r="J5" s="339"/>
+      <c r="K5" s="339"/>
+      <c r="L5" s="339"/>
+      <c r="M5" s="339"/>
+      <c r="N5" s="339"/>
+      <c r="O5" s="341"/>
+      <c r="P5" s="352"/>
       <c r="Q5" s="194" t="s">
         <v>68</v>
       </c>
@@ -6308,7 +6342,7 @@
     </row>
     <row r="6" spans="1:24" s="21" customFormat="1">
       <c r="A6" s="128" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B6" s="129">
         <v>1300</v>
@@ -6350,7 +6384,7 @@
     </row>
     <row r="7" spans="1:24" s="21" customFormat="1">
       <c r="A7" s="128" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B7" s="129">
         <v>700</v>
@@ -6390,7 +6424,7 @@
     </row>
     <row r="8" spans="1:24" s="21" customFormat="1">
       <c r="A8" s="128" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B8" s="136">
         <v>500</v>
@@ -6434,7 +6468,7 @@
     </row>
     <row r="9" spans="1:24" s="21" customFormat="1">
       <c r="A9" s="128" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B9" s="136">
         <v>800</v>
@@ -6476,7 +6510,7 @@
     </row>
     <row r="10" spans="1:24" s="21" customFormat="1">
       <c r="A10" s="128" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B10" s="136">
         <v>1000</v>
@@ -6518,7 +6552,7 @@
     </row>
     <row r="11" spans="1:24" s="21" customFormat="1">
       <c r="A11" s="128" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B11" s="136">
         <v>1000</v>
@@ -9264,6 +9298,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -9280,9 +9317,6 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9296,8 +9330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A33" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9323,14 +9357,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="363" t="s">
+      <c r="A1" s="357" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="364"/>
-      <c r="C1" s="364"/>
-      <c r="D1" s="364"/>
-      <c r="E1" s="364"/>
-      <c r="F1" s="365"/>
+      <c r="B1" s="358"/>
+      <c r="C1" s="358"/>
+      <c r="D1" s="358"/>
+      <c r="E1" s="358"/>
+      <c r="F1" s="359"/>
       <c r="G1" s="114"/>
       <c r="H1" s="114"/>
       <c r="I1" s="216"/>
@@ -9424,14 +9458,14 @@
       <c r="CS1" s="211"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="366" t="s">
-        <v>217</v>
-      </c>
-      <c r="B2" s="367"/>
-      <c r="C2" s="367"/>
-      <c r="D2" s="367"/>
-      <c r="E2" s="367"/>
-      <c r="F2" s="368"/>
+      <c r="A2" s="360" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="361"/>
+      <c r="C2" s="361"/>
+      <c r="D2" s="361"/>
+      <c r="E2" s="361"/>
+      <c r="F2" s="362"/>
       <c r="G2" s="114"/>
       <c r="H2" s="114"/>
       <c r="I2" s="216"/>
@@ -9525,14 +9559,14 @@
       <c r="CS2" s="211"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="369" t="s">
+      <c r="A3" s="363" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="370"/>
-      <c r="C3" s="370"/>
-      <c r="D3" s="370"/>
-      <c r="E3" s="370"/>
-      <c r="F3" s="371"/>
+      <c r="B3" s="364"/>
+      <c r="C3" s="364"/>
+      <c r="D3" s="364"/>
+      <c r="E3" s="364"/>
+      <c r="F3" s="365"/>
       <c r="G3" s="114"/>
       <c r="H3" s="114"/>
       <c r="I3" s="216"/>
@@ -9738,7 +9772,7 @@
     </row>
     <row r="5" spans="1:97">
       <c r="A5" s="257" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B5" s="92">
         <v>437365</v>
@@ -9848,7 +9882,7 @@
     </row>
     <row r="6" spans="1:97">
       <c r="A6" s="258" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B6" s="94">
         <v>434125</v>
@@ -9958,7 +9992,7 @@
     </row>
     <row r="7" spans="1:97">
       <c r="A7" s="258" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B7" s="94">
         <v>492065</v>
@@ -10068,7 +10102,7 @@
     </row>
     <row r="8" spans="1:97">
       <c r="A8" s="258" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B8" s="94">
         <v>421060</v>
@@ -10178,7 +10212,7 @@
     </row>
     <row r="9" spans="1:97">
       <c r="A9" s="258" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B9" s="94">
         <v>387520</v>
@@ -10288,7 +10322,7 @@
     </row>
     <row r="10" spans="1:97">
       <c r="A10" s="258" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B10" s="94">
         <v>512840</v>
@@ -12857,12 +12891,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="206"/>
-      <c r="B35" s="361" t="s">
+      <c r="B35" s="355" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="361"/>
-      <c r="D35" s="361"/>
-      <c r="E35" s="361"/>
+      <c r="C35" s="355"/>
+      <c r="D35" s="355"/>
+      <c r="E35" s="355"/>
       <c r="F35" s="207"/>
       <c r="G35" s="212"/>
       <c r="H35" s="212"/>
@@ -13082,7 +13116,7 @@
         <v>11920</v>
       </c>
       <c r="E37" s="271" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F37" s="207"/>
       <c r="G37" s="212"/>
@@ -13182,7 +13216,7 @@
         <v>192</v>
       </c>
       <c r="B38" s="110" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C38" s="97" t="s">
         <v>88</v>
@@ -13191,7 +13225,7 @@
         <v>1000</v>
       </c>
       <c r="E38" s="251" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F38" s="205"/>
       <c r="G38" s="212"/>
@@ -13291,7 +13325,7 @@
         <v>192</v>
       </c>
       <c r="B39" s="110" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C39" s="91" t="s">
         <v>88</v>
@@ -13300,7 +13334,7 @@
         <v>1000</v>
       </c>
       <c r="E39" s="251" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F39" s="205"/>
       <c r="G39" s="212"/>
@@ -13709,10 +13743,10 @@
       <c r="D43" s="301"/>
       <c r="E43" s="252"/>
       <c r="F43" s="207"/>
-      <c r="G43" s="362"/>
-      <c r="H43" s="362"/>
-      <c r="I43" s="362"/>
-      <c r="J43" s="362"/>
+      <c r="G43" s="356"/>
+      <c r="H43" s="356"/>
+      <c r="I43" s="356"/>
+      <c r="J43" s="356"/>
       <c r="K43" s="114"/>
       <c r="L43" s="216"/>
       <c r="M43" s="114"/>
@@ -14028,7 +14062,7 @@
         <v>200</v>
       </c>
       <c r="B46" s="266" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C46" s="196">
         <v>1718911905</v>
@@ -14037,7 +14071,7 @@
         <v>425350</v>
       </c>
       <c r="E46" s="267" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F46" s="204"/>
       <c r="G46" s="211"/>
@@ -14150,7 +14184,7 @@
         <v>200</v>
       </c>
       <c r="B47" s="178" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C47" s="173">
         <v>1716697790</v>
@@ -14173,7 +14207,7 @@
         <v>485815</v>
       </c>
       <c r="K47" s="99" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L47" s="197">
         <v>485815</v>
@@ -14272,7 +14306,7 @@
         <v>200</v>
       </c>
       <c r="B48" s="103" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C48" s="173">
         <v>1733624262</v>
@@ -14394,7 +14428,7 @@
         <v>200</v>
       </c>
       <c r="B49" s="103" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C49" s="173">
         <v>1711460131</v>
@@ -14516,7 +14550,7 @@
         <v>200</v>
       </c>
       <c r="B50" s="103" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C50" s="173">
         <v>1743942020</v>
@@ -14638,7 +14672,7 @@
         <v>200</v>
       </c>
       <c r="B51" s="100" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C51" s="173">
         <v>1712688979</v>
@@ -14760,7 +14794,7 @@
         <v>200</v>
       </c>
       <c r="B52" s="100" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C52" s="173">
         <v>1739791780</v>
@@ -14769,7 +14803,7 @@
         <v>46620</v>
       </c>
       <c r="E52" s="253" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F52" s="205"/>
       <c r="G52" s="211"/>
@@ -14882,7 +14916,7 @@
         <v>200</v>
       </c>
       <c r="B53" s="100" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C53" s="173">
         <v>1723246584</v>
@@ -14891,7 +14925,7 @@
         <v>35745</v>
       </c>
       <c r="E53" s="255" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F53" s="205"/>
       <c r="G53" s="211"/>
@@ -15002,7 +15036,7 @@
         <v>200</v>
       </c>
       <c r="B54" s="100" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C54" s="173">
         <v>1725821212</v>
@@ -15011,7 +15045,7 @@
         <v>17000</v>
       </c>
       <c r="E54" s="255" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F54" s="205"/>
       <c r="G54" s="211"/>
@@ -15137,7 +15171,7 @@
         <v>30000</v>
       </c>
       <c r="K55" s="246" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L55" s="197">
         <v>30000</v>
@@ -15233,7 +15267,7 @@
     </row>
     <row r="56" spans="1:97">
       <c r="A56" s="323" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B56" s="105" t="s">
         <v>178</v>
@@ -15245,7 +15279,7 @@
         <v>50000</v>
       </c>
       <c r="E56" s="255" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F56" s="205"/>
       <c r="G56" s="211"/>
@@ -15259,7 +15293,7 @@
         <v>6000</v>
       </c>
       <c r="K56" s="173" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L56" s="197">
         <v>6000</v>
@@ -15367,7 +15401,7 @@
         <v>19000</v>
       </c>
       <c r="E57" s="253" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F57" s="205"/>
       <c r="G57" s="211"/>
@@ -15381,7 +15415,7 @@
         <v>5160</v>
       </c>
       <c r="K57" s="246" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L57" s="197">
         <v>5160</v>
@@ -15477,19 +15511,19 @@
     </row>
     <row r="58" spans="1:97">
       <c r="A58" s="323" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B58" s="103" t="s">
         <v>207</v>
       </c>
       <c r="C58" s="173" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D58" s="305">
         <v>23000</v>
       </c>
       <c r="E58" s="254" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F58" s="205"/>
       <c r="G58" s="211"/>
@@ -15592,7 +15626,7 @@
         <v>185</v>
       </c>
       <c r="B59" s="100" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C59" s="173">
         <v>1789726772</v>
@@ -15601,7 +15635,7 @@
         <v>6800</v>
       </c>
       <c r="E59" s="255" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F59" s="205"/>
       <c r="G59" s="211"/>
@@ -15947,7 +15981,7 @@
         <v>42510</v>
       </c>
       <c r="E62" s="255" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F62" s="204"/>
       <c r="G62" s="211"/>
@@ -16191,7 +16225,7 @@
         <v>2750</v>
       </c>
       <c r="E64" s="253" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F64" s="205"/>
       <c r="G64" s="211"/>
@@ -16301,19 +16335,19 @@
     </row>
     <row r="65" spans="1:97">
       <c r="A65" s="323" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B65" s="103" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C65" s="173" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D65" s="305">
         <v>8580</v>
       </c>
       <c r="E65" s="253" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F65" s="205"/>
       <c r="G65" s="211"/>
@@ -16571,7 +16605,7 @@
         <v>10650</v>
       </c>
       <c r="K67" s="246" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L67" s="197">
         <v>10650</v>
@@ -16679,7 +16713,7 @@
         <v>25900</v>
       </c>
       <c r="E68" s="255" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F68" s="205"/>
       <c r="G68" s="211"/>
@@ -17013,19 +17047,19 @@
     </row>
     <row r="71" spans="1:97">
       <c r="A71" s="323" t="s">
+        <v>248</v>
+      </c>
+      <c r="B71" s="103" t="s">
+        <v>249</v>
+      </c>
+      <c r="C71" s="173" t="s">
         <v>250</v>
-      </c>
-      <c r="B71" s="103" t="s">
-        <v>251</v>
-      </c>
-      <c r="C71" s="173" t="s">
-        <v>252</v>
       </c>
       <c r="D71" s="305">
         <v>51835</v>
       </c>
       <c r="E71" s="253" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F71" s="207"/>
       <c r="G71" s="211"/>
@@ -17147,7 +17181,7 @@
         <v>5160</v>
       </c>
       <c r="E72" s="253" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F72" s="207"/>
       <c r="G72" s="211"/>
@@ -17161,7 +17195,7 @@
         <v>28000</v>
       </c>
       <c r="K72" s="245" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L72" s="197">
         <v>28000</v>
@@ -17257,10 +17291,10 @@
     </row>
     <row r="73" spans="1:97">
       <c r="A73" s="323" t="s">
+        <v>222</v>
+      </c>
+      <c r="B73" s="103" t="s">
         <v>223</v>
-      </c>
-      <c r="B73" s="103" t="s">
-        <v>224</v>
       </c>
       <c r="C73" s="173">
         <v>1732469191</v>
@@ -17269,7 +17303,7 @@
         <v>21380</v>
       </c>
       <c r="E73" s="254" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F73" s="207"/>
       <c r="G73" s="211"/>
@@ -17395,7 +17429,7 @@
         <v>24872</v>
       </c>
       <c r="K74" s="245" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L74" s="197">
         <v>24872</v>
@@ -17507,7 +17541,7 @@
         <v>23186</v>
       </c>
       <c r="K75" s="173" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L75" s="197">
         <v>23186</v>
@@ -17615,7 +17649,7 @@
         <v>30930</v>
       </c>
       <c r="E76" s="254" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F76" s="205"/>
       <c r="G76" s="211"/>
@@ -17751,7 +17785,7 @@
         <v>4760</v>
       </c>
       <c r="K77" s="246" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L77" s="197">
         <v>4760</v>
@@ -17859,7 +17893,7 @@
         <v>46888</v>
       </c>
       <c r="E78" s="253" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F78" s="205"/>
       <c r="G78" s="211"/>
@@ -17981,7 +18015,7 @@
         <v>39700</v>
       </c>
       <c r="E79" s="254" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F79" s="205"/>
       <c r="G79" s="211"/>
@@ -17995,7 +18029,7 @@
         <v>2610</v>
       </c>
       <c r="K79" s="246" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L79" s="197">
         <v>2610</v>
@@ -18103,7 +18137,7 @@
         <v>26000</v>
       </c>
       <c r="E80" s="254" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F80" s="205" t="s">
         <v>14</v>
@@ -18227,7 +18261,7 @@
         <v>19585</v>
       </c>
       <c r="E81" s="255" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F81" s="205"/>
       <c r="G81" s="211"/>
@@ -18349,7 +18383,7 @@
         <v>24000</v>
       </c>
       <c r="E82" s="255" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F82" s="207"/>
       <c r="G82" s="211"/>
@@ -18471,7 +18505,7 @@
         <v>21286</v>
       </c>
       <c r="E83" s="253" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F83" s="207"/>
       <c r="G83" s="211"/>
@@ -18715,7 +18749,7 @@
         <v>11235</v>
       </c>
       <c r="E85" s="255" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F85" s="207"/>
       <c r="G85" s="211"/>
@@ -19061,7 +19095,7 @@
         <v>10650</v>
       </c>
       <c r="E88" s="253" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F88" s="205"/>
       <c r="G88" s="211"/>
@@ -19197,7 +19231,7 @@
         <v>23800</v>
       </c>
       <c r="K89" s="99" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L89" s="197">
         <v>23800</v>
@@ -21493,7 +21527,7 @@
       <c r="C111" s="173">
         <v>1711442828</v>
       </c>
-      <c r="D111" s="330">
+      <c r="D111" s="327">
         <v>1210</v>
       </c>
       <c r="E111" s="255" t="s">
@@ -21605,7 +21639,7 @@
       <c r="C112" s="325">
         <v>1717395317</v>
       </c>
-      <c r="D112" s="330">
+      <c r="D112" s="327">
         <v>2340</v>
       </c>
       <c r="E112" s="255" t="s">
@@ -22057,7 +22091,7 @@
         <v>30550</v>
       </c>
       <c r="E116" s="255" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F116" s="211"/>
       <c r="G116" s="211"/>
@@ -22269,10 +22303,10 @@
     </row>
     <row r="118" spans="1:97" ht="13.5" thickBot="1">
       <c r="A118" s="324" t="s">
+        <v>233</v>
+      </c>
+      <c r="B118" s="249" t="s">
         <v>234</v>
-      </c>
-      <c r="B118" s="249" t="s">
-        <v>235</v>
       </c>
       <c r="C118" s="173">
         <v>1786462446</v>
@@ -22281,7 +22315,7 @@
         <v>1280</v>
       </c>
       <c r="E118" s="256" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F118" s="211"/>
       <c r="G118" s="211"/>
@@ -22380,11 +22414,11 @@
       <c r="CS118" s="211"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="359" t="s">
+      <c r="A119" s="353" t="s">
         <v>51</v>
       </c>
-      <c r="B119" s="360"/>
-      <c r="C119" s="372"/>
+      <c r="B119" s="354"/>
+      <c r="C119" s="366"/>
       <c r="D119" s="309">
         <f>SUM(D37:D118)</f>
         <v>2309859</v>
@@ -22587,11 +22621,11 @@
       <c r="CS120" s="211"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="359" t="s">
+      <c r="A121" s="353" t="s">
         <v>52</v>
       </c>
-      <c r="B121" s="360"/>
-      <c r="C121" s="360"/>
+      <c r="B121" s="354"/>
+      <c r="C121" s="354"/>
       <c r="D121" s="309">
         <f>D119+M121</f>
         <v>2309859</v>
@@ -32610,7 +32644,7 @@
   </sheetPr>
   <dimension ref="A1:AC223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -32628,35 +32662,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="373" t="s">
+      <c r="A1" s="367" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="374"/>
-      <c r="C1" s="374"/>
-      <c r="D1" s="374"/>
-      <c r="E1" s="375"/>
+      <c r="B1" s="368"/>
+      <c r="C1" s="368"/>
+      <c r="D1" s="368"/>
+      <c r="E1" s="369"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:29" ht="21.75">
-      <c r="A2" s="382" t="s">
+      <c r="A2" s="376" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="383"/>
-      <c r="C2" s="383"/>
-      <c r="D2" s="383"/>
-      <c r="E2" s="384"/>
+      <c r="B2" s="377"/>
+      <c r="C2" s="377"/>
+      <c r="D2" s="377"/>
+      <c r="E2" s="378"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:29" ht="23.25">
-      <c r="A3" s="376" t="s">
-        <v>240</v>
-      </c>
-      <c r="B3" s="377"/>
-      <c r="C3" s="377"/>
-      <c r="D3" s="377"/>
-      <c r="E3" s="378"/>
+      <c r="A3" s="370" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="371"/>
+      <c r="C3" s="371"/>
+      <c r="D3" s="371"/>
+      <c r="E3" s="372"/>
       <c r="F3" s="5"/>
       <c r="G3" s="11"/>
       <c r="H3" s="8"/>
@@ -32732,7 +32766,7 @@
         <v>140000</v>
       </c>
       <c r="H5" s="49" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -32867,7 +32901,7 @@
     </row>
     <row r="9" spans="1:29" ht="21.75">
       <c r="A9" s="64" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B9" s="67">
         <v>0</v>
@@ -33130,13 +33164,13 @@
       <c r="AC15" s="8"/>
     </row>
     <row r="16" spans="1:29" ht="22.5">
-      <c r="A16" s="379" t="s">
+      <c r="A16" s="373" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="380"/>
-      <c r="C16" s="380"/>
-      <c r="D16" s="380"/>
-      <c r="E16" s="381"/>
+      <c r="B16" s="374"/>
+      <c r="C16" s="374"/>
+      <c r="D16" s="374"/>
+      <c r="E16" s="375"/>
       <c r="F16" s="5"/>
       <c r="G16" s="9"/>
       <c r="H16" s="27"/>
@@ -33281,7 +33315,7 @@
     </row>
     <row r="20" spans="1:29" ht="21.75">
       <c r="A20" s="75" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B20" s="86">
         <v>27585</v>
@@ -33319,7 +33353,7 @@
     </row>
     <row r="21" spans="1:29" ht="21.75">
       <c r="A21" s="180" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B21" s="181">
         <v>51835</v>
@@ -33402,7 +33436,7 @@
       </c>
       <c r="C23" s="182"/>
       <c r="D23" s="179" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E23" s="87">
         <v>26000</v>
@@ -33440,7 +33474,7 @@
       </c>
       <c r="C24" s="186"/>
       <c r="D24" s="176" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E24" s="177">
         <v>50000</v>
@@ -38327,8 +38361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -38969,856 +39003,726 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="339" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" style="387" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="333" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A1" s="329" t="s">
-        <v>184</v>
-      </c>
-      <c r="B1" s="329" t="s">
+    <row r="1" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A1" s="385" t="s">
         <v>208</v>
       </c>
-      <c r="C1" s="336" t="s">
+      <c r="B1" s="381" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="329" t="s">
+      <c r="C1" s="390" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="329" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="331" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2" s="332" t="s">
+      <c r="D1" s="382">
+        <f ca="1">TODAY()</f>
+        <v>44354</v>
+      </c>
+      <c r="E1" s="380" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="328" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="110">
+        <v>1718911905</v>
+      </c>
+      <c r="C2" s="307">
+        <v>425350</v>
+      </c>
+      <c r="D2" s="394">
+        <v>-115525</v>
+      </c>
+      <c r="E2" s="202"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="329" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="331" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="391">
+        <v>129613</v>
+      </c>
+      <c r="D3" s="395" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3" s="202"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="328" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="110" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="307">
+        <v>25900</v>
+      </c>
+      <c r="D4" s="395" t="s">
+        <v>253</v>
+      </c>
+      <c r="E4" s="202"/>
+      <c r="H4" s="33"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="329" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="202" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="391">
+        <v>46888</v>
+      </c>
+      <c r="D5" s="396">
+        <v>2000</v>
+      </c>
+      <c r="E5" s="202"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="329" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" s="331" t="s">
         <v>236</v>
       </c>
-      <c r="C2" s="110">
-        <v>1718911905</v>
-      </c>
-      <c r="D2" s="333">
-        <v>309825</v>
-      </c>
-      <c r="E2" s="332" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="334" t="s">
-        <v>191</v>
-      </c>
-      <c r="B3" s="334" t="s">
+      <c r="C6" s="391">
+        <v>23000</v>
+      </c>
+      <c r="D6" s="395" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="202"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="329" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" s="331">
+        <v>1723246584</v>
+      </c>
+      <c r="C7" s="391">
+        <v>35745</v>
+      </c>
+      <c r="D7" s="395" t="s">
+        <v>253</v>
+      </c>
+      <c r="E7" s="202"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="329" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="331" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="391">
+        <v>10915</v>
+      </c>
+      <c r="D8" s="395" t="s">
+        <v>253</v>
+      </c>
+      <c r="E8" s="202"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="329" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="331" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="391">
+        <v>3500</v>
+      </c>
+      <c r="D9" s="395" t="s">
+        <v>253</v>
+      </c>
+      <c r="E9" s="202"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="329" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="331" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="391">
+        <v>14000</v>
+      </c>
+      <c r="D10" s="395" t="s">
+        <v>253</v>
+      </c>
+      <c r="E10" s="202"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="329" t="s">
+        <v>241</v>
+      </c>
+      <c r="B11" s="331">
+        <v>1733624262</v>
+      </c>
+      <c r="C11" s="391">
+        <v>209465</v>
+      </c>
+      <c r="D11" s="395" t="s">
+        <v>253</v>
+      </c>
+      <c r="E11" s="202"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="329" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="331" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="391">
+        <v>50000</v>
+      </c>
+      <c r="D12" s="395" t="s">
+        <v>253</v>
+      </c>
+      <c r="E12" s="202"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="329" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="331" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="391">
+        <v>2750</v>
+      </c>
+      <c r="D13" s="395" t="s">
+        <v>253</v>
+      </c>
+      <c r="E13" s="202"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="329" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" s="331">
+        <v>1711460131</v>
+      </c>
+      <c r="C14" s="391">
+        <v>200000</v>
+      </c>
+      <c r="D14" s="395" t="s">
+        <v>253</v>
+      </c>
+      <c r="E14" s="202"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="329" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="331" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="391">
+        <v>26000</v>
+      </c>
+      <c r="D15" s="394" t="s">
+        <v>253</v>
+      </c>
+      <c r="E15" s="202"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="329" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="331" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="391">
+        <v>39700</v>
+      </c>
+      <c r="D16" s="396">
+        <v>1000</v>
+      </c>
+      <c r="E16" s="202"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="329" t="s">
+        <v>240</v>
+      </c>
+      <c r="B17" s="202">
+        <v>1716697790</v>
+      </c>
+      <c r="C17" s="391">
+        <v>265917</v>
+      </c>
+      <c r="D17" s="395" t="s">
+        <v>253</v>
+      </c>
+      <c r="E17" s="202"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="329" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="202" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="391">
+        <v>24000</v>
+      </c>
+      <c r="D18" s="395" t="s">
+        <v>253</v>
+      </c>
+      <c r="E18" s="202"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="386" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="332" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="392">
+        <v>10000</v>
+      </c>
+      <c r="D19" s="395" t="s">
+        <v>253</v>
+      </c>
+      <c r="E19" s="202"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="329" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" s="331" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="391">
+        <v>19000</v>
+      </c>
+      <c r="D20" s="394" t="s">
+        <v>253</v>
+      </c>
+      <c r="E20" s="202"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="386" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="332" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="392">
+        <v>11235</v>
+      </c>
+      <c r="D21" s="396">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="202"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="386" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="332" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="392">
+        <v>10650</v>
+      </c>
+      <c r="D22" s="395" t="s">
+        <v>253</v>
+      </c>
+      <c r="E22" s="202"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="329" t="s">
+        <v>244</v>
+      </c>
+      <c r="B23" s="331">
+        <v>1712688979</v>
+      </c>
+      <c r="C23" s="391">
+        <v>63290</v>
+      </c>
+      <c r="D23" s="394" t="s">
+        <v>253</v>
+      </c>
+      <c r="E23" s="202"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="329" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" s="331" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="391">
+        <v>19585</v>
+      </c>
+      <c r="D24" s="394" t="s">
+        <v>253</v>
+      </c>
+      <c r="E24" s="202"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="328" t="s">
+        <v>223</v>
+      </c>
+      <c r="B25" s="110">
+        <v>1732469191</v>
+      </c>
+      <c r="C25" s="307">
+        <v>21380</v>
+      </c>
+      <c r="D25" s="394">
+        <v>5000</v>
+      </c>
+      <c r="E25" s="202"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="329" t="s">
+        <v>245</v>
+      </c>
+      <c r="B26" s="331">
+        <v>1739791780</v>
+      </c>
+      <c r="C26" s="391">
+        <v>46620</v>
+      </c>
+      <c r="D26" s="395" t="s">
+        <v>253</v>
+      </c>
+      <c r="E26" s="202"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="329" t="s">
+        <v>224</v>
+      </c>
+      <c r="B27" s="331">
+        <v>1789726772</v>
+      </c>
+      <c r="C27" s="391">
+        <v>6800</v>
+      </c>
+      <c r="D27" s="394" t="s">
+        <v>253</v>
+      </c>
+      <c r="E27" s="202"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="386" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" s="332" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="392">
+        <v>22030</v>
+      </c>
+      <c r="D28" s="394" t="s">
+        <v>253</v>
+      </c>
+      <c r="E28" s="202"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="328" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29" s="110" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="307">
+        <v>8580</v>
+      </c>
+      <c r="D29" s="394" t="s">
+        <v>253</v>
+      </c>
+      <c r="E29" s="202"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="329" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" s="331" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="391">
+        <v>42510</v>
+      </c>
+      <c r="D30" s="395" t="s">
+        <v>253</v>
+      </c>
+      <c r="E30" s="202"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="329" t="s">
+        <v>247</v>
+      </c>
+      <c r="B31" s="331">
+        <v>1725821212</v>
+      </c>
+      <c r="C31" s="391">
+        <v>17000</v>
+      </c>
+      <c r="D31" s="396">
+        <v>5780</v>
+      </c>
+      <c r="E31" s="202"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="330" t="s">
+        <v>169</v>
+      </c>
+      <c r="B32" s="110" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="307">
+        <v>5160</v>
+      </c>
+      <c r="D32" s="395" t="s">
+        <v>253</v>
+      </c>
+      <c r="E32" s="202"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="328" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" s="110" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="307">
+        <v>21286</v>
+      </c>
+      <c r="D33" s="396">
+        <v>500</v>
+      </c>
+      <c r="E33" s="202"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="329" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="337" t="s">
+      <c r="B34" s="331" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="334">
-        <v>31930</v>
-      </c>
-      <c r="E3" s="334" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="334" t="s">
-        <v>191</v>
-      </c>
-      <c r="B4" s="334" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="337" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="334">
-        <v>10915</v>
-      </c>
-      <c r="E4" s="334" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" s="33"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="334" t="s">
-        <v>190</v>
-      </c>
-      <c r="B5" s="334" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="337" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="334">
-        <v>48888</v>
-      </c>
-      <c r="E5" s="334" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="334" t="s">
-        <v>190</v>
-      </c>
-      <c r="B6" s="334" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" s="337" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="334">
-        <v>40700</v>
-      </c>
-      <c r="E6" s="334" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="334" t="s">
-        <v>190</v>
-      </c>
-      <c r="B7" s="334" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="337" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="334">
-        <v>26000</v>
-      </c>
-      <c r="E7" s="334" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="334" t="s">
-        <v>190</v>
-      </c>
-      <c r="B8" s="334" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="337" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="334">
-        <v>24585</v>
-      </c>
-      <c r="E8" s="334" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="334" t="s">
-        <v>190</v>
-      </c>
-      <c r="B9" s="334" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="337" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="334">
-        <v>24000</v>
-      </c>
-      <c r="E9" s="334" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="334" t="s">
-        <v>190</v>
-      </c>
-      <c r="B10" s="334" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="337" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="334">
-        <v>21786</v>
-      </c>
-      <c r="E10" s="334" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="334" t="s">
-        <v>190</v>
-      </c>
-      <c r="B11" s="334" t="s">
-        <v>163</v>
-      </c>
-      <c r="C11" s="337" t="s">
-        <v>136</v>
-      </c>
-      <c r="D11" s="334">
-        <v>22030</v>
-      </c>
-      <c r="E11" s="334" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="334" t="s">
-        <v>190</v>
-      </c>
-      <c r="B12" s="334" t="s">
-        <v>162</v>
-      </c>
-      <c r="C12" s="337" t="s">
-        <v>135</v>
-      </c>
-      <c r="D12" s="334">
-        <v>12235</v>
-      </c>
-      <c r="E12" s="334" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="334" t="s">
-        <v>194</v>
-      </c>
-      <c r="B13" s="334" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="337">
-        <v>1739992171</v>
-      </c>
-      <c r="D13" s="334">
-        <v>17500</v>
-      </c>
-      <c r="E13" s="334" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="334" t="s">
-        <v>194</v>
-      </c>
-      <c r="B14" s="334" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="337">
-        <v>1758900692</v>
-      </c>
-      <c r="D14" s="334">
-        <v>30000</v>
-      </c>
-      <c r="E14" s="334" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="334" t="s">
-        <v>186</v>
-      </c>
-      <c r="B15" s="334" t="s">
-        <v>169</v>
-      </c>
-      <c r="C15" s="337" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" s="334">
-        <v>5160</v>
-      </c>
-      <c r="E15" s="334" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="334" t="s">
-        <v>182</v>
-      </c>
-      <c r="B16" s="334" t="s">
-        <v>168</v>
-      </c>
-      <c r="C16" s="337" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" s="334">
-        <v>42510</v>
-      </c>
-      <c r="E16" s="334" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="334" t="s">
-        <v>182</v>
-      </c>
-      <c r="B17" s="334" t="s">
-        <v>166</v>
-      </c>
-      <c r="C17" s="337" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" s="334">
-        <v>14000</v>
-      </c>
-      <c r="E17" s="334" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="334" t="s">
-        <v>182</v>
-      </c>
-      <c r="B18" s="334" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" s="337" t="s">
-        <v>144</v>
-      </c>
-      <c r="D18" s="334">
-        <v>2750</v>
-      </c>
-      <c r="E18" s="334" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="334" t="s">
-        <v>223</v>
-      </c>
-      <c r="B19" s="334" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="337">
-        <v>1732469191</v>
-      </c>
-      <c r="D19" s="334">
-        <v>21380</v>
-      </c>
-      <c r="E19" s="334" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="334" t="s">
-        <v>189</v>
-      </c>
-      <c r="B20" s="334" t="s">
-        <v>174</v>
-      </c>
-      <c r="C20" s="337" t="s">
-        <v>148</v>
-      </c>
-      <c r="D20" s="334">
-        <v>10650</v>
-      </c>
-      <c r="E20" s="334" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="334" t="s">
-        <v>189</v>
-      </c>
-      <c r="B21" s="334" t="s">
-        <v>173</v>
-      </c>
-      <c r="C21" s="337" t="s">
-        <v>147</v>
-      </c>
-      <c r="D21" s="334">
-        <v>10000</v>
-      </c>
-      <c r="E21" s="334" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="331" t="s">
-        <v>200</v>
-      </c>
-      <c r="B22" s="332" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="110">
-        <v>1716697790</v>
-      </c>
-      <c r="D22" s="333">
-        <v>265917</v>
-      </c>
-      <c r="E22" s="332" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="331" t="s">
-        <v>200</v>
-      </c>
-      <c r="B23" s="332" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="110">
-        <v>1733624262</v>
-      </c>
-      <c r="D23" s="333">
-        <v>209465</v>
-      </c>
-      <c r="E23" s="332" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="331" t="s">
-        <v>200</v>
-      </c>
-      <c r="B24" s="332" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="110">
-        <v>1711460131</v>
-      </c>
-      <c r="D24" s="333">
-        <v>200000</v>
-      </c>
-      <c r="E24" s="332" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="331" t="s">
-        <v>200</v>
-      </c>
-      <c r="B25" s="332" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="110">
+      <c r="C34" s="391">
+        <v>30930</v>
+      </c>
+      <c r="D34" s="396">
+        <v>1000</v>
+      </c>
+      <c r="E34" s="202"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="329" t="s">
+        <v>243</v>
+      </c>
+      <c r="B35" s="331">
         <v>1743942020</v>
       </c>
-      <c r="D25" s="333">
+      <c r="C35" s="391">
         <v>188285</v>
       </c>
-      <c r="E25" s="332" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="331" t="s">
-        <v>200</v>
-      </c>
-      <c r="B26" s="332" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="110">
-        <v>1712688979</v>
-      </c>
-      <c r="D26" s="333">
-        <v>63290</v>
-      </c>
-      <c r="E26" s="332" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="331" t="s">
-        <v>200</v>
-      </c>
-      <c r="B27" s="335" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="110">
-        <v>1739791780</v>
-      </c>
-      <c r="D27" s="333">
-        <v>46620</v>
-      </c>
-      <c r="E27" s="332" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="331" t="s">
-        <v>200</v>
-      </c>
-      <c r="B28" s="332" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="110">
-        <v>1723246584</v>
-      </c>
-      <c r="D28" s="333">
-        <v>35745</v>
-      </c>
-      <c r="E28" s="332" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="331" t="s">
-        <v>200</v>
-      </c>
-      <c r="B29" s="332" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="110">
-        <v>1725821212</v>
-      </c>
-      <c r="D29" s="333">
-        <v>25780</v>
-      </c>
-      <c r="E29" s="332" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="334" t="s">
-        <v>185</v>
-      </c>
-      <c r="B30" s="334" t="s">
-        <v>175</v>
-      </c>
-      <c r="C30" s="337" t="s">
-        <v>149</v>
-      </c>
-      <c r="D30" s="334">
-        <v>19000</v>
-      </c>
-      <c r="E30" s="334" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="334" t="s">
-        <v>185</v>
-      </c>
-      <c r="B31" s="334" t="s">
-        <v>225</v>
-      </c>
-      <c r="C31" s="337">
-        <v>1789726772</v>
-      </c>
-      <c r="D31" s="334">
-        <v>6800</v>
-      </c>
-      <c r="E31" s="334" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="334" t="s">
-        <v>222</v>
-      </c>
-      <c r="B32" s="334" t="s">
-        <v>230</v>
-      </c>
-      <c r="C32" t="s">
-        <v>237</v>
-      </c>
-      <c r="D32" s="334">
-        <v>8580</v>
-      </c>
-      <c r="E32" s="334" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="334" t="s">
-        <v>188</v>
-      </c>
-      <c r="B33" s="334" t="s">
-        <v>165</v>
-      </c>
-      <c r="C33" s="337" t="s">
-        <v>138</v>
-      </c>
-      <c r="D33" s="334">
-        <v>3500</v>
-      </c>
-      <c r="E33" s="334" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="334" t="s">
-        <v>187</v>
-      </c>
-      <c r="B34" s="334" t="s">
-        <v>176</v>
-      </c>
-      <c r="C34" s="337" t="s">
-        <v>150</v>
-      </c>
-      <c r="D34" s="334">
-        <v>129613</v>
-      </c>
-      <c r="E34" s="334" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="334" t="s">
-        <v>187</v>
-      </c>
-      <c r="B35" s="334" t="s">
-        <v>177</v>
-      </c>
-      <c r="C35" s="337" t="s">
-        <v>151</v>
-      </c>
-      <c r="D35" s="334">
-        <v>25900</v>
-      </c>
-      <c r="E35" s="334" t="s">
-        <v>221</v>
-      </c>
+      <c r="D35" s="395" t="s">
+        <v>253</v>
+      </c>
+      <c r="E35" s="202"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="334" t="s">
-        <v>187</v>
-      </c>
-      <c r="B36" s="334" t="s">
-        <v>170</v>
-      </c>
-      <c r="C36" s="337" t="s">
-        <v>143</v>
-      </c>
-      <c r="D36" s="334">
-        <v>2860</v>
-      </c>
-      <c r="E36" s="334" t="s">
-        <v>226</v>
-      </c>
+      <c r="A36" s="383"/>
+      <c r="B36" s="379"/>
+      <c r="C36" s="393"/>
+      <c r="D36" s="389"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="334" t="s">
-        <v>228</v>
-      </c>
-      <c r="B37" s="334" t="s">
-        <v>207</v>
-      </c>
-      <c r="C37" t="s">
-        <v>238</v>
-      </c>
-      <c r="D37" s="334">
-        <v>23000</v>
-      </c>
-      <c r="E37" s="334" t="s">
-        <v>226</v>
-      </c>
+      <c r="A37" s="328"/>
+      <c r="B37" s="384"/>
+      <c r="C37" s="307"/>
+      <c r="D37" s="388"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="334" t="s">
-        <v>219</v>
-      </c>
-      <c r="B38" s="334" t="s">
-        <v>178</v>
-      </c>
-      <c r="C38" t="s">
-        <v>152</v>
-      </c>
-      <c r="D38" s="334">
-        <v>50000</v>
-      </c>
-      <c r="E38" s="334" t="s">
-        <v>214</v>
-      </c>
+      <c r="A38" s="329"/>
+      <c r="B38" s="331"/>
+      <c r="C38" s="391"/>
+      <c r="D38" s="326"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="327"/>
-      <c r="B39" s="93"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="326"/>
-      <c r="E39" s="328"/>
+      <c r="A39" s="328"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="307"/>
+      <c r="D39" s="43"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="338"/>
+      <c r="A40" s="328"/>
+      <c r="B40" s="110"/>
+      <c r="C40" s="307"/>
       <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="338"/>
+      <c r="A41" s="328"/>
+      <c r="B41" s="110"/>
+      <c r="C41" s="307"/>
       <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="338"/>
+      <c r="A42" s="329"/>
+      <c r="B42" s="331"/>
+      <c r="C42" s="391"/>
       <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="338"/>
+      <c r="A43" s="386"/>
+      <c r="B43" s="332"/>
+      <c r="C43" s="392"/>
       <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="338"/>
+      <c r="A44" s="386"/>
+      <c r="B44" s="332"/>
+      <c r="C44" s="392"/>
       <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="338"/>
+      <c r="A45" s="386"/>
+      <c r="B45" s="332"/>
+      <c r="C45" s="392"/>
       <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="338"/>
+      <c r="A46" s="386"/>
+      <c r="B46" s="332"/>
+      <c r="C46" s="392"/>
       <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="338"/>
+      <c r="A47" s="386"/>
+      <c r="B47" s="332"/>
+      <c r="C47" s="392"/>
       <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="338"/>
+      <c r="A48" s="386"/>
+      <c r="B48" s="332"/>
+      <c r="C48" s="392"/>
       <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="338"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="386"/>
+      <c r="B49" s="332"/>
+      <c r="C49" s="392"/>
       <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="338"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="386"/>
+      <c r="B50" s="332"/>
+      <c r="C50" s="392"/>
       <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="338"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="386"/>
+      <c r="B51" s="332"/>
+      <c r="C51" s="392"/>
       <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="338"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="386"/>
+      <c r="B52" s="332"/>
+      <c r="C52" s="392"/>
       <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="338"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="386"/>
+      <c r="B53" s="332"/>
+      <c r="C53" s="392"/>
       <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="338"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="386"/>
+      <c r="B54" s="332"/>
+      <c r="C54" s="392"/>
       <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="338"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="386"/>
+      <c r="B55" s="332"/>
+      <c r="C55" s="392"/>
       <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="338"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="386"/>
+      <c r="B56" s="332"/>
+      <c r="C56" s="392"/>
       <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="43"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="338"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="386"/>
+      <c r="B57" s="332"/>
+      <c r="C57" s="392"/>
       <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="43"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="338"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="386"/>
+      <c r="B58" s="332"/>
+      <c r="C58" s="392"/>
       <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="43"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="338"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="386"/>
+      <c r="B59" s="332"/>
+      <c r="C59" s="392"/>
       <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="43"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="338"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="386"/>
+      <c r="B60" s="332"/>
+      <c r="C60" s="392"/>
       <c r="D60" s="43"/>
-      <c r="E60" s="43"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="43"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="338"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="386"/>
+      <c r="B61" s="332"/>
+      <c r="C61" s="392"/>
       <c r="D61" s="43"/>
-      <c r="E61" s="43"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="43"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="338"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="386"/>
+      <c r="B62" s="332"/>
+      <c r="C62" s="392"/>
       <c r="D62" s="43"/>
-      <c r="E62" s="43"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="43"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="338"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="386"/>
+      <c r="B63" s="332"/>
+      <c r="C63" s="392"/>
       <c r="D63" s="43"/>
-      <c r="E63" s="43"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="43"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="338"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="43"/>
     </row>
   </sheetData>
-  <sortState ref="A6:E77">
-    <sortCondition ref="A5"/>
+  <sortState ref="A3:C45">
+    <sortCondition ref="A2"/>
   </sortState>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D3:D9 D10:D35" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>